--- a/Real-Estate_Agency_Dashboard/Real-Estate_Agency_Data.xlsx
+++ b/Real-Estate_Agency_Dashboard/Real-Estate_Agency_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sanchit Goel\Desktop\DSM_Dashboards_Github\Excel Pivot Dashboards\Excel_Pivot_Dashboards\Real-Estate_Agency_Dashboard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A4BACDC-148D-4BF2-827B-F8E17B759974}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5041D996-86D7-48F9-B320-FB59F7A8B212}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{115365E8-0A41-4908-B0BF-77620A434DD8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="20">
   <si>
     <t>Date</t>
   </si>
@@ -61,6 +61,39 @@
   </si>
   <si>
     <t>Property ID</t>
+  </si>
+  <si>
+    <t>Residential</t>
+  </si>
+  <si>
+    <t>Chennai</t>
+  </si>
+  <si>
+    <t>$300k - $500k</t>
+  </si>
+  <si>
+    <t>Commercial</t>
+  </si>
+  <si>
+    <t>Delhi</t>
+  </si>
+  <si>
+    <t>Pune</t>
+  </si>
+  <si>
+    <t>$100k - $300k</t>
+  </si>
+  <si>
+    <t>Bangalore</t>
+  </si>
+  <si>
+    <t>$500k - $700k</t>
+  </si>
+  <si>
+    <t>Mumbai</t>
+  </si>
+  <si>
+    <t>Above $700k</t>
   </si>
 </sst>
 </file>
@@ -193,30 +226,14 @@
   <autoFilter ref="A1:I25" xr:uid="{3384B283-BCFE-4723-B1FC-44E49FD5ED86}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{895B074F-241B-4D76-A54B-13925165CFE6}" name="Property ID" dataDxfId="9"/>
-    <tableColumn id="2" xr3:uid="{3ADA023D-0622-4724-8D1A-D410EB2A4EE7}" name="Date" dataDxfId="8">
-      <calculatedColumnFormula>RANDBETWEEN(DATE(2022,1,1), DATE(2024,1, 1))</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="3" xr3:uid="{0688F0CE-86AB-44B8-A6F5-FD54B5E8C05E}" name="Property Sales" dataDxfId="7">
-      <calculatedColumnFormula>RANDBETWEEN(5,50)</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="4" xr3:uid="{40054BCD-91BE-4751-AFF6-6066AF36EB22}" name="Commissions Earned" dataDxfId="6" dataCellStyle="Comma">
-      <calculatedColumnFormula>RANDBETWEEN(100000,1000000)</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="5" xr3:uid="{C58AC74B-BB98-4253-8E5E-AB98B5CA5E5E}" name="Time-to-Sale (Days)" dataDxfId="5">
-      <calculatedColumnFormula>RANDBETWEEN(10,120)</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="6" xr3:uid="{B9FB6836-2F80-4DAB-BD5D-64EB38DD4A49}" name="Agent Performance (sales per Agent)" dataDxfId="4">
-      <calculatedColumnFormula>RANDBETWEEN(1,10)</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="7" xr3:uid="{2381307E-B189-48CB-867D-9B5A9B8511F5}" name="Property Type" dataDxfId="3">
-      <calculatedColumnFormula>CHOOSE(RANDBETWEEN(1,2), "Residential", "Commercial")</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="8" xr3:uid="{88EA0C22-0066-4CBB-91DF-CE0A4B928E93}" name="Region" dataDxfId="2">
-      <calculatedColumnFormula>CHOOSE(RANDBETWEEN(1,5), "Delhi", "Mumbai", "Pune", "Bangalore", "Chennai")</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="9" xr3:uid="{BCD70829-7AF9-4884-ADCC-6763A42EDA78}" name="Price Range" dataDxfId="1">
-      <calculatedColumnFormula>CHOOSE(RANDBETWEEN(1,4), "$100k - $300k","$300k - $500k","$500k - $700k","Above $700k")</calculatedColumnFormula>
-    </tableColumn>
+    <tableColumn id="2" xr3:uid="{3ADA023D-0622-4724-8D1A-D410EB2A4EE7}" name="Date" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{0688F0CE-86AB-44B8-A6F5-FD54B5E8C05E}" name="Property Sales" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{40054BCD-91BE-4751-AFF6-6066AF36EB22}" name="Commissions Earned" dataDxfId="6" dataCellStyle="Comma"/>
+    <tableColumn id="5" xr3:uid="{C58AC74B-BB98-4253-8E5E-AB98B5CA5E5E}" name="Time-to-Sale (Days)" dataDxfId="5"/>
+    <tableColumn id="6" xr3:uid="{B9FB6836-2F80-4DAB-BD5D-64EB38DD4A49}" name="Agent Performance (sales per Agent)" dataDxfId="4"/>
+    <tableColumn id="7" xr3:uid="{2381307E-B189-48CB-867D-9B5A9B8511F5}" name="Property Type" dataDxfId="3"/>
+    <tableColumn id="8" xr3:uid="{88EA0C22-0066-4CBB-91DF-CE0A4B928E93}" name="Region" dataDxfId="2"/>
+    <tableColumn id="9" xr3:uid="{BCD70829-7AF9-4884-ADCC-6763A42EDA78}" name="Price Range" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -522,7 +539,7 @@
   <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -571,36 +588,28 @@
         <v>1</v>
       </c>
       <c r="B2" s="3">
-        <f ca="1">RANDBETWEEN(DATE(2022,1,1), DATE(2024,1, 1))</f>
-        <v>44702</v>
+        <v>44626</v>
       </c>
       <c r="C2" s="2">
-        <f ca="1">RANDBETWEEN(5,50)</f>
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="D2" s="4">
-        <f ca="1">RANDBETWEEN(100000,1000000)</f>
-        <v>860435</v>
+        <v>628660</v>
       </c>
       <c r="E2" s="2">
-        <f ca="1">RANDBETWEEN(10,120)</f>
-        <v>26</v>
+        <v>69</v>
       </c>
       <c r="F2" s="2">
-        <f ca="1">RANDBETWEEN(1,10)</f>
-        <v>8</v>
-      </c>
-      <c r="G2" s="2" t="str">
-        <f ca="1">CHOOSE(RANDBETWEEN(1,2), "Residential", "Commercial")</f>
-        <v>Residential</v>
-      </c>
-      <c r="H2" s="2" t="str">
-        <f ca="1">CHOOSE(RANDBETWEEN(1,5), "Delhi", "Mumbai", "Pune", "Bangalore", "Chennai")</f>
-        <v>Bangalore</v>
-      </c>
-      <c r="I2" s="2" t="str">
-        <f ca="1">CHOOSE(RANDBETWEEN(1,4), "$100k - $300k","$300k - $500k","$500k - $700k","Above $700k")</f>
-        <v>$100k - $300k</v>
+        <v>1</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
@@ -608,36 +617,28 @@
         <v>2</v>
       </c>
       <c r="B3" s="3">
-        <f t="shared" ref="B3:B25" ca="1" si="0">RANDBETWEEN(DATE(2022,1,1), DATE(2024,1, 1))</f>
-        <v>44990</v>
+        <v>44645</v>
       </c>
       <c r="C3" s="2">
-        <f t="shared" ref="C3:C25" ca="1" si="1">RANDBETWEEN(5,50)</f>
-        <v>7</v>
+        <v>43</v>
       </c>
       <c r="D3" s="4">
-        <f t="shared" ref="D3:D25" ca="1" si="2">RANDBETWEEN(100000,1000000)</f>
-        <v>383795</v>
+        <v>715981</v>
       </c>
       <c r="E3" s="2">
-        <f t="shared" ref="E3:E25" ca="1" si="3">RANDBETWEEN(10,120)</f>
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="F3" s="2">
-        <f t="shared" ref="F3:F25" ca="1" si="4">RANDBETWEEN(1,10)</f>
-        <v>9</v>
-      </c>
-      <c r="G3" s="2" t="str">
-        <f t="shared" ref="G3:G25" ca="1" si="5">CHOOSE(RANDBETWEEN(1,2), "Residential", "Commercial")</f>
-        <v>Residential</v>
-      </c>
-      <c r="H3" s="2" t="str">
-        <f t="shared" ref="H3:H25" ca="1" si="6">CHOOSE(RANDBETWEEN(1,5), "Delhi", "Mumbai", "Pune", "Bangalore", "Chennai")</f>
-        <v>Delhi</v>
-      </c>
-      <c r="I3" s="2" t="str">
-        <f t="shared" ref="I3:I25" ca="1" si="7">CHOOSE(RANDBETWEEN(1,4), "$100k - $300k","$300k - $500k","$500k - $700k","Above $700k")</f>
-        <v>$500k - $700k</v>
+        <v>9</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
@@ -645,36 +646,28 @@
         <v>3</v>
       </c>
       <c r="B4" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>44902</v>
+        <v>45055</v>
       </c>
       <c r="C4" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="D4" s="4">
-        <f t="shared" ca="1" si="2"/>
-        <v>424639</v>
+        <v>120897</v>
       </c>
       <c r="E4" s="2">
-        <f t="shared" ca="1" si="3"/>
-        <v>117</v>
+        <v>79</v>
       </c>
       <c r="F4" s="2">
-        <f t="shared" ca="1" si="4"/>
-        <v>2</v>
-      </c>
-      <c r="G4" s="2" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>Residential</v>
-      </c>
-      <c r="H4" s="2" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>Pune</v>
-      </c>
-      <c r="I4" s="2" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v>$500k - $700k</v>
+        <v>10</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
@@ -682,36 +675,28 @@
         <v>4</v>
       </c>
       <c r="B5" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>44565</v>
+        <v>44693</v>
       </c>
       <c r="C5" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D5" s="4">
-        <f t="shared" ca="1" si="2"/>
-        <v>801887</v>
+        <v>124809</v>
       </c>
       <c r="E5" s="2">
-        <f t="shared" ca="1" si="3"/>
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="F5" s="2">
-        <f t="shared" ca="1" si="4"/>
-        <v>6</v>
-      </c>
-      <c r="G5" s="2" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>Residential</v>
-      </c>
-      <c r="H5" s="2" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>Delhi</v>
-      </c>
-      <c r="I5" s="2" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v>$500k - $700k</v>
+        <v>2</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
@@ -719,36 +704,28 @@
         <v>5</v>
       </c>
       <c r="B6" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>45179</v>
+        <v>45062</v>
       </c>
       <c r="C6" s="2">
-        <f t="shared" ca="1" si="1"/>
         <v>8</v>
       </c>
       <c r="D6" s="4">
-        <f t="shared" ca="1" si="2"/>
-        <v>264013</v>
+        <v>954026</v>
       </c>
       <c r="E6" s="2">
-        <f t="shared" ca="1" si="3"/>
-        <v>116</v>
+        <v>100</v>
       </c>
       <c r="F6" s="2">
-        <f t="shared" ca="1" si="4"/>
-        <v>9</v>
-      </c>
-      <c r="G6" s="2" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>Commercial</v>
-      </c>
-      <c r="H6" s="2" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>Mumbai</v>
-      </c>
-      <c r="I6" s="2" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v>Above $700k</v>
+        <v>2</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
@@ -756,36 +733,28 @@
         <v>6</v>
       </c>
       <c r="B7" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>44891</v>
+        <v>44813</v>
       </c>
       <c r="C7" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D7" s="4">
-        <f t="shared" ca="1" si="2"/>
-        <v>157796</v>
+        <v>267964</v>
       </c>
       <c r="E7" s="2">
-        <f t="shared" ca="1" si="3"/>
-        <v>65</v>
+        <v>112</v>
       </c>
       <c r="F7" s="2">
-        <f t="shared" ca="1" si="4"/>
-        <v>10</v>
-      </c>
-      <c r="G7" s="2" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>Residential</v>
-      </c>
-      <c r="H7" s="2" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>Delhi</v>
-      </c>
-      <c r="I7" s="2" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v>$300k - $500k</v>
+        <v>4</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
@@ -793,36 +762,28 @@
         <v>7</v>
       </c>
       <c r="B8" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>44843</v>
+        <v>44628</v>
       </c>
       <c r="C8" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="D8" s="4">
-        <f t="shared" ca="1" si="2"/>
-        <v>106842</v>
+        <v>466559</v>
       </c>
       <c r="E8" s="2">
-        <f t="shared" ca="1" si="3"/>
-        <v>63</v>
+        <v>110</v>
       </c>
       <c r="F8" s="2">
-        <f t="shared" ca="1" si="4"/>
-        <v>9</v>
-      </c>
-      <c r="G8" s="2" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>Commercial</v>
-      </c>
-      <c r="H8" s="2" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>Bangalore</v>
-      </c>
-      <c r="I8" s="2" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v>Above $700k</v>
+        <v>8</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
@@ -830,36 +791,28 @@
         <v>8</v>
       </c>
       <c r="B9" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>44914</v>
+        <v>45159</v>
       </c>
       <c r="C9" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D9" s="4">
-        <f t="shared" ca="1" si="2"/>
-        <v>643164</v>
+        <v>162816</v>
       </c>
       <c r="E9" s="2">
-        <f t="shared" ca="1" si="3"/>
-        <v>85</v>
+        <v>114</v>
       </c>
       <c r="F9" s="2">
-        <f t="shared" ca="1" si="4"/>
-        <v>7</v>
-      </c>
-      <c r="G9" s="2" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>Commercial</v>
-      </c>
-      <c r="H9" s="2" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>Delhi</v>
-      </c>
-      <c r="I9" s="2" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v>$300k - $500k</v>
+        <v>10</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
@@ -867,36 +820,28 @@
         <v>9</v>
       </c>
       <c r="B10" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>44991</v>
+        <v>45286</v>
       </c>
       <c r="C10" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D10" s="4">
-        <f t="shared" ca="1" si="2"/>
-        <v>403127</v>
+        <v>507409</v>
       </c>
       <c r="E10" s="2">
-        <f t="shared" ca="1" si="3"/>
-        <v>38</v>
+        <v>95</v>
       </c>
       <c r="F10" s="2">
-        <f t="shared" ca="1" si="4"/>
-        <v>9</v>
-      </c>
-      <c r="G10" s="2" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>Commercial</v>
-      </c>
-      <c r="H10" s="2" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>Mumbai</v>
-      </c>
-      <c r="I10" s="2" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v>$100k - $300k</v>
+        <v>3</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
@@ -904,36 +849,28 @@
         <v>10</v>
       </c>
       <c r="B11" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>45097</v>
+        <v>45022</v>
       </c>
       <c r="C11" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="D11" s="4">
-        <f t="shared" ca="1" si="2"/>
-        <v>269889</v>
+        <v>672578</v>
       </c>
       <c r="E11" s="2">
-        <f t="shared" ca="1" si="3"/>
-        <v>112</v>
+        <v>41</v>
       </c>
       <c r="F11" s="2">
-        <f t="shared" ca="1" si="4"/>
-        <v>9</v>
-      </c>
-      <c r="G11" s="2" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>Residential</v>
-      </c>
-      <c r="H11" s="2" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>Pune</v>
-      </c>
-      <c r="I11" s="2" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v>$500k - $700k</v>
+        <v>9</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
@@ -941,36 +878,28 @@
         <v>11</v>
       </c>
       <c r="B12" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>45290</v>
+        <v>45282</v>
       </c>
       <c r="C12" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="D12" s="4">
-        <f t="shared" ca="1" si="2"/>
-        <v>162917</v>
+        <v>595023</v>
       </c>
       <c r="E12" s="2">
-        <f t="shared" ca="1" si="3"/>
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="F12" s="2">
-        <f t="shared" ca="1" si="4"/>
         <v>6</v>
       </c>
-      <c r="G12" s="2" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>Residential</v>
-      </c>
-      <c r="H12" s="2" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>Delhi</v>
-      </c>
-      <c r="I12" s="2" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v>$500k - $700k</v>
+      <c r="G12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
@@ -978,36 +907,28 @@
         <v>12</v>
       </c>
       <c r="B13" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>44672</v>
+        <v>44927</v>
       </c>
       <c r="C13" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D13" s="4">
-        <f t="shared" ca="1" si="2"/>
-        <v>496226</v>
+        <v>332463</v>
       </c>
       <c r="E13" s="2">
-        <f t="shared" ca="1" si="3"/>
-        <v>26</v>
+        <v>82</v>
       </c>
       <c r="F13" s="2">
-        <f t="shared" ca="1" si="4"/>
         <v>3</v>
       </c>
-      <c r="G13" s="2" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>Residential</v>
-      </c>
-      <c r="H13" s="2" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>Pune</v>
-      </c>
-      <c r="I13" s="2" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v>$300k - $500k</v>
+      <c r="G13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
@@ -1015,36 +936,28 @@
         <v>13</v>
       </c>
       <c r="B14" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>44593</v>
+        <v>44985</v>
       </c>
       <c r="C14" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D14" s="4">
-        <f t="shared" ca="1" si="2"/>
-        <v>521052</v>
+        <v>285204</v>
       </c>
       <c r="E14" s="2">
-        <f t="shared" ca="1" si="3"/>
-        <v>29</v>
+        <v>58</v>
       </c>
       <c r="F14" s="2">
-        <f t="shared" ca="1" si="4"/>
-        <v>5</v>
-      </c>
-      <c r="G14" s="2" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>Residential</v>
-      </c>
-      <c r="H14" s="2" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>Chennai</v>
-      </c>
-      <c r="I14" s="2" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v>$500k - $700k</v>
+        <v>8</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
@@ -1052,36 +965,28 @@
         <v>14</v>
       </c>
       <c r="B15" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>45146</v>
+        <v>45055</v>
       </c>
       <c r="C15" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="D15" s="4">
-        <f t="shared" ca="1" si="2"/>
-        <v>956455</v>
+        <v>528560</v>
       </c>
       <c r="E15" s="2">
-        <f t="shared" ca="1" si="3"/>
-        <v>18</v>
+        <v>93</v>
       </c>
       <c r="F15" s="2">
-        <f t="shared" ca="1" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="G15" s="2" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>Commercial</v>
-      </c>
-      <c r="H15" s="2" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>Mumbai</v>
-      </c>
-      <c r="I15" s="2" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v>$100k - $300k</v>
+        <v>2</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
@@ -1089,36 +994,28 @@
         <v>15</v>
       </c>
       <c r="B16" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>45249</v>
+        <v>44715</v>
       </c>
       <c r="C16" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="D16" s="4">
-        <f t="shared" ca="1" si="2"/>
-        <v>237861</v>
+        <v>780318</v>
       </c>
       <c r="E16" s="2">
-        <f t="shared" ca="1" si="3"/>
-        <v>10</v>
+        <v>61</v>
       </c>
       <c r="F16" s="2">
-        <f t="shared" ca="1" si="4"/>
-        <v>10</v>
-      </c>
-      <c r="G16" s="2" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>Commercial</v>
-      </c>
-      <c r="H16" s="2" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>Mumbai</v>
-      </c>
-      <c r="I16" s="2" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v>$300k - $500k</v>
+        <v>4</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
@@ -1126,36 +1023,28 @@
         <v>16</v>
       </c>
       <c r="B17" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>44753</v>
+        <v>45203</v>
       </c>
       <c r="C17" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D17" s="4">
-        <f t="shared" ca="1" si="2"/>
-        <v>327634</v>
+        <v>997837</v>
       </c>
       <c r="E17" s="2">
-        <f t="shared" ca="1" si="3"/>
-        <v>32</v>
+        <v>113</v>
       </c>
       <c r="F17" s="2">
-        <f t="shared" ca="1" si="4"/>
-        <v>6</v>
-      </c>
-      <c r="G17" s="2" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>Residential</v>
-      </c>
-      <c r="H17" s="2" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>Mumbai</v>
-      </c>
-      <c r="I17" s="2" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v>$500k - $700k</v>
+        <v>9</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
@@ -1163,36 +1052,28 @@
         <v>17</v>
       </c>
       <c r="B18" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>45226</v>
+        <v>45215</v>
       </c>
       <c r="C18" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>38</v>
+        <v>5</v>
       </c>
       <c r="D18" s="4">
-        <f t="shared" ca="1" si="2"/>
-        <v>791939</v>
+        <v>232069</v>
       </c>
       <c r="E18" s="2">
-        <f t="shared" ca="1" si="3"/>
-        <v>19</v>
+        <v>76</v>
       </c>
       <c r="F18" s="2">
-        <f t="shared" ca="1" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="G18" s="2" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>Commercial</v>
-      </c>
-      <c r="H18" s="2" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>Delhi</v>
-      </c>
-      <c r="I18" s="2" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v>$500k - $700k</v>
+        <v>1</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
@@ -1200,36 +1081,28 @@
         <v>18</v>
       </c>
       <c r="B19" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>45174</v>
+        <v>44969</v>
       </c>
       <c r="C19" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="D19" s="4">
-        <f t="shared" ca="1" si="2"/>
-        <v>466766</v>
+        <v>916062</v>
       </c>
       <c r="E19" s="2">
-        <f t="shared" ca="1" si="3"/>
-        <v>43</v>
+        <v>63</v>
       </c>
       <c r="F19" s="2">
-        <f t="shared" ca="1" si="4"/>
-        <v>5</v>
-      </c>
-      <c r="G19" s="2" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>Commercial</v>
-      </c>
-      <c r="H19" s="2" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>Chennai</v>
-      </c>
-      <c r="I19" s="2" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v>$100k - $300k</v>
+        <v>3</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
@@ -1237,36 +1110,28 @@
         <v>19</v>
       </c>
       <c r="B20" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>45052</v>
+        <v>44767</v>
       </c>
       <c r="C20" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="D20" s="4">
-        <f t="shared" ca="1" si="2"/>
-        <v>346282</v>
+        <v>165155</v>
       </c>
       <c r="E20" s="2">
-        <f t="shared" ca="1" si="3"/>
-        <v>14</v>
+        <v>55</v>
       </c>
       <c r="F20" s="2">
-        <f t="shared" ca="1" si="4"/>
-        <v>8</v>
-      </c>
-      <c r="G20" s="2" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>Residential</v>
-      </c>
-      <c r="H20" s="2" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>Mumbai</v>
-      </c>
-      <c r="I20" s="2" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v>$300k - $500k</v>
+        <v>1</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
@@ -1274,36 +1139,28 @@
         <v>20</v>
       </c>
       <c r="B21" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>44718</v>
+        <v>45170</v>
       </c>
       <c r="C21" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>47</v>
+        <v>5</v>
       </c>
       <c r="D21" s="4">
-        <f t="shared" ca="1" si="2"/>
-        <v>583384</v>
+        <v>156183</v>
       </c>
       <c r="E21" s="2">
-        <f t="shared" ca="1" si="3"/>
-        <v>60</v>
+        <v>117</v>
       </c>
       <c r="F21" s="2">
-        <f t="shared" ca="1" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="G21" s="2" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>Residential</v>
-      </c>
-      <c r="H21" s="2" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>Mumbai</v>
-      </c>
-      <c r="I21" s="2" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v>$300k - $500k</v>
+        <v>6</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
@@ -1311,36 +1168,28 @@
         <v>21</v>
       </c>
       <c r="B22" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>44567</v>
+        <v>45103</v>
       </c>
       <c r="C22" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="D22" s="4">
-        <f t="shared" ca="1" si="2"/>
-        <v>575027</v>
+        <v>753772</v>
       </c>
       <c r="E22" s="2">
-        <f t="shared" ca="1" si="3"/>
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="F22" s="2">
-        <f t="shared" ca="1" si="4"/>
-        <v>9</v>
-      </c>
-      <c r="G22" s="2" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>Residential</v>
-      </c>
-      <c r="H22" s="2" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>Pune</v>
-      </c>
-      <c r="I22" s="2" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v>$500k - $700k</v>
+        <v>10</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
@@ -1348,36 +1197,28 @@
         <v>22</v>
       </c>
       <c r="B23" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>45075</v>
+        <v>45176</v>
       </c>
       <c r="C23" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="D23" s="4">
-        <f t="shared" ca="1" si="2"/>
-        <v>597157</v>
+        <v>175054</v>
       </c>
       <c r="E23" s="2">
-        <f t="shared" ca="1" si="3"/>
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="F23" s="2">
-        <f t="shared" ca="1" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="G23" s="2" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>Commercial</v>
-      </c>
-      <c r="H23" s="2" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>Chennai</v>
-      </c>
-      <c r="I23" s="2" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v>$500k - $700k</v>
+        <v>2</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
@@ -1385,36 +1226,28 @@
         <v>23</v>
       </c>
       <c r="B24" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>45169</v>
+        <v>44608</v>
       </c>
       <c r="C24" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="D24" s="4">
-        <f t="shared" ca="1" si="2"/>
-        <v>836401</v>
+        <v>819123</v>
       </c>
       <c r="E24" s="2">
-        <f t="shared" ca="1" si="3"/>
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="F24" s="2">
-        <f t="shared" ca="1" si="4"/>
-        <v>8</v>
-      </c>
-      <c r="G24" s="2" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>Residential</v>
-      </c>
-      <c r="H24" s="2" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>Pune</v>
-      </c>
-      <c r="I24" s="2" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v>$100k - $300k</v>
+        <v>3</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
@@ -1422,36 +1255,28 @@
         <v>24</v>
       </c>
       <c r="B25" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>44845</v>
+        <v>44897</v>
       </c>
       <c r="C25" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D25" s="4">
-        <f t="shared" ca="1" si="2"/>
-        <v>231927</v>
+        <v>954282</v>
       </c>
       <c r="E25" s="2">
-        <f t="shared" ca="1" si="3"/>
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="F25" s="2">
-        <f t="shared" ca="1" si="4"/>
-        <v>2</v>
-      </c>
-      <c r="G25" s="2" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>Residential</v>
-      </c>
-      <c r="H25" s="2" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>Chennai</v>
-      </c>
-      <c r="I25" s="2" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v>$100k - $300k</v>
+        <v>6</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
